--- a/biology/Médecine/Parasiticide/Parasiticide.xlsx
+++ b/biology/Médecine/Parasiticide/Parasiticide.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Un parasiticide ou antiparasitaire est un produit chimique capable de détruire (tuer) les parasites.
 On parle de trypanocide dans le cas d'un produit destiné à lutter contre le Trypanosome.
@@ -514,13 +526,86 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Parasiticides naturels
-La staphisaigre est une plante très toxique qui contient plusieurs alcaloïdes diterpéniques tels la delphinine et la chasmanine. Ses graines ont des propriétés insecticides et parasiticides. Elles servent à préparer des pommades ou des décoctions contre les poux et autres parasites externes. La plante est également employée en homéopathie.
-Le hêtre et plus particulièrement la faîne a des propriétés parasiticides.
-Parasiticides chimiques
-Thiabendazole
-Parasiticides contre les ennemis des cultures
-Les parasiticides contre les ennemis des cultures et assimilés sont définis en France par le code rural, dans l'article L.253-1, comme suit :
+          <t>Parasiticides naturels</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>La staphisaigre est une plante très toxique qui contient plusieurs alcaloïdes diterpéniques tels la delphinine et la chasmanine. Ses graines ont des propriétés insecticides et parasiticides. Elles servent à préparer des pommades ou des décoctions contre les poux et autres parasites externes. La plante est également employée en homéopathie.
+Le hêtre et plus particulièrement la faîne a des propriétés parasiticides.</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Parasiticide</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Parasiticide</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Exemples</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Parasiticides chimiques</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Thiabendazole</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Parasiticide</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Parasiticide</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Exemples</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Parasiticides contre les ennemis des cultures</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les parasiticides contre les ennemis des cultures et assimilés sont définis en France par le code rural, dans l'article L.253-1, comme suit :
 les antiseptiques et les anticryptogamiques destinés à la protection des cultures et des matières végétales ;
 les herbicides ;
 les produits de défense contre les vertébrés et invertébrés nuisibles aux cultures et aux produits agricoles ;
